--- a/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
+++ b/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\io-model\VoSTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\io-model\VoSTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5738321E-CC4C-4416-807D-B27B4B320AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E3ECA9-87D2-4324-836E-CF0BB5B077F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="990" windowWidth="24405" windowHeight="15705" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BEA Output" sheetId="3" r:id="rId2"/>
     <sheet name="BEA Sales Tax Revenue" sheetId="4" r:id="rId3"/>
     <sheet name="Average Tax Rate" sheetId="5" r:id="rId4"/>
-    <sheet name="VoSTR" sheetId="2" r:id="rId5"/>
+    <sheet name="canada" sheetId="6" r:id="rId5"/>
+    <sheet name="VoSTR" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="352">
   <si>
     <t>Notes:</t>
   </si>
@@ -1034,10 +1035,64 @@
     <t>BEA</t>
   </si>
   <si>
-    <t>https://apps.bea.gov/iTable/iTable.cfm?reqid=150&amp;step=3&amp;isuri=1&amp;table_list=6006&amp;categories=io</t>
-  </si>
-  <si>
     <t>https://apps.bea.gov/iTable/iTable.cfm?reqid=19&amp;step=3&amp;isuri=1&amp;nipa_table_list=88&amp;categories=survey</t>
+  </si>
+  <si>
+    <t>5% (GST) in Alberta, British Columbia, Manitoba, Northwest Territories, Nunavut, Quebec, Saskatchewan, and Yukon</t>
+  </si>
+  <si>
+    <t>13% (HST) in Ontario</t>
+  </si>
+  <si>
+    <t>15% (HST) in New Brunswick, Newfoundland and Labrador, Nova Scotia, and Prince Edward Island</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/revenue-agency/services/tax/businesses/topics/gst-hst-businesses/charge-collect-which-rate.html</t>
+  </si>
+  <si>
+    <t>Government of Canada</t>
+  </si>
+  <si>
+    <t>Charge and collect tax - which rate to charge</t>
+  </si>
+  <si>
+    <t>alberta</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>manitoba</t>
+  </si>
+  <si>
+    <t>northwest</t>
+  </si>
+  <si>
+    <t>nunavut</t>
+  </si>
+  <si>
+    <t>quebec</t>
+  </si>
+  <si>
+    <t>saskatchewan</t>
+  </si>
+  <si>
+    <t>yukon</t>
+  </si>
+  <si>
+    <t>ontario</t>
+  </si>
+  <si>
+    <t>new brunswick</t>
+  </si>
+  <si>
+    <t>newfoundland</t>
+  </si>
+  <si>
+    <t>nova scotia</t>
+  </si>
+  <si>
+    <t>prince edward island</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1193,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1205,12 +1260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,16 +1269,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,115 +1627,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>49</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>332</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>328</v>
       </c>
@@ -1695,893 +1751,893 @@
   <dimension ref="A1:CH81"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="CG53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="CG8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C7" sqref="C7"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="CJ81" sqref="CJ81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="84" width="0" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="23.453125" customWidth="1"/>
-    <col min="86" max="86" width="30.81640625" customWidth="1"/>
+    <col min="85" max="85" width="23.42578125" customWidth="1"/>
+    <col min="86" max="86" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:86" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="15"/>
+      <c r="BW1" s="15"/>
+      <c r="BX1" s="15"/>
+      <c r="BY1" s="15"/>
+      <c r="BZ1" s="15"/>
+      <c r="CA1" s="15"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
     </row>
-    <row r="2" spans="1:86" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:86" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="6"/>
-      <c r="CF2" s="6"/>
-      <c r="CG2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="6"/>
-      <c r="BU3" s="6"/>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="6"/>
-      <c r="BX3" s="6"/>
-      <c r="BY3" s="6"/>
-      <c r="BZ3" s="6"/>
-      <c r="CA3" s="6"/>
-      <c r="CB3" s="6"/>
-      <c r="CC3" s="6"/>
-      <c r="CD3" s="6"/>
-      <c r="CE3" s="6"/>
-      <c r="CF3" s="6"/>
-      <c r="CG3" s="6"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="6"/>
-      <c r="CB4" s="6"/>
-      <c r="CC4" s="6"/>
-      <c r="CD4" s="6"/>
-      <c r="CE4" s="6"/>
-      <c r="CF4" s="6"/>
-      <c r="CG4" s="6"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="15"/>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="15"/>
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="15"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="15"/>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AD6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AF6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AH6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AI6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AJ6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AL6" s="9" t="s">
+      <c r="AL6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AM6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AN6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AO6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AP6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AQ6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AR6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AS6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AT6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AU6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AV6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AW6" s="9" t="s">
+      <c r="AW6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AX6" s="9" t="s">
+      <c r="AX6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="AY6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AZ6" s="9" t="s">
+      <c r="AZ6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BA6" s="9" t="s">
+      <c r="BA6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="BB6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="BC6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BD6" s="9" t="s">
+      <c r="BD6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="BE6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BF6" s="9" t="s">
+      <c r="BF6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BG6" s="9" t="s">
+      <c r="BG6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="BH6" s="9" t="s">
+      <c r="BH6" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="BI6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="BJ6" s="9" t="s">
+      <c r="BJ6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="BK6" s="9" t="s">
+      <c r="BK6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="BL6" s="9" t="s">
+      <c r="BL6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BM6" s="9" t="s">
+      <c r="BM6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BN6" s="9" t="s">
+      <c r="BN6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="BO6" s="9" t="s">
+      <c r="BO6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="BP6" s="9" t="s">
+      <c r="BP6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="BQ6" s="9" t="s">
+      <c r="BQ6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="BR6" s="9" t="s">
+      <c r="BR6" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BS6" s="9" t="s">
+      <c r="BS6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BT6" s="9" t="s">
+      <c r="BT6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BU6" s="9" t="s">
+      <c r="BU6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BV6" s="9" t="s">
+      <c r="BV6" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BW6" s="9" t="s">
+      <c r="BW6" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BX6" s="9" t="s">
+      <c r="BX6" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BY6" s="9" t="s">
+      <c r="BY6" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BZ6" s="9" t="s">
+      <c r="BZ6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="CA6" s="9" t="s">
+      <c r="CA6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="CB6" s="9" t="s">
+      <c r="CB6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="CC6" s="9" t="s">
+      <c r="CC6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="CD6" s="9" t="s">
+      <c r="CD6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="CE6" s="9" t="s">
+      <c r="CE6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="CF6" s="9" t="s">
+      <c r="CF6" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="CG6" s="9" t="s">
+      <c r="CG6" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:86" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:86" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Z7" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AB7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AC7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AF7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AG7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AH7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AI7" s="9" t="s">
+      <c r="AI7" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AK7" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="AL7" s="9" t="s">
+      <c r="AL7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AM7" s="9" t="s">
+      <c r="AM7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AN7" s="9" t="s">
+      <c r="AN7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AO7" s="9" t="s">
+      <c r="AO7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AP7" s="9" t="s">
+      <c r="AP7" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AQ7" s="9" t="s">
+      <c r="AQ7" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AR7" s="9" t="s">
+      <c r="AR7" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="AS7" s="9" t="s">
+      <c r="AS7" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AT7" s="9" t="s">
+      <c r="AT7" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AU7" s="9" t="s">
+      <c r="AU7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AV7" s="9" t="s">
+      <c r="AV7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AW7" s="9" t="s">
+      <c r="AW7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AX7" s="9" t="s">
+      <c r="AX7" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="AY7" s="9" t="s">
+      <c r="AY7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AZ7" s="9" t="s">
+      <c r="AZ7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="BA7" s="9" t="s">
+      <c r="BA7" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="BB7" s="9" t="s">
+      <c r="BB7" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="BC7" s="9" t="s">
+      <c r="BC7" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="BD7" s="9" t="s">
+      <c r="BD7" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="BE7" s="9" t="s">
+      <c r="BE7" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="BF7" s="9" t="s">
+      <c r="BF7" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="BG7" s="9" t="s">
+      <c r="BG7" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="BH7" s="9" t="s">
+      <c r="BH7" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="BI7" s="9" t="s">
+      <c r="BI7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="BJ7" s="9" t="s">
+      <c r="BJ7" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="BK7" s="9" t="s">
+      <c r="BK7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BL7" s="9" t="s">
+      <c r="BL7" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="BM7" s="9" t="s">
+      <c r="BM7" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="BN7" s="9" t="s">
+      <c r="BN7" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="BO7" s="9" t="s">
+      <c r="BO7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="BP7" s="9" t="s">
+      <c r="BP7" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BQ7" s="9" t="s">
+      <c r="BQ7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="BR7" s="9" t="s">
+      <c r="BR7" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BS7" s="9" t="s">
+      <c r="BS7" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BT7" s="9" t="s">
+      <c r="BT7" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BU7" s="9" t="s">
+      <c r="BU7" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BV7" s="9" t="s">
+      <c r="BV7" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="BW7" s="9" t="s">
+      <c r="BW7" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="BX7" s="9" t="s">
+      <c r="BX7" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="BY7" s="9" t="s">
+      <c r="BY7" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="BZ7" s="9" t="s">
+      <c r="BZ7" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="CA7" s="9" t="s">
+      <c r="CA7" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="CB7" s="9" t="s">
+      <c r="CB7" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="CC7" s="9" t="s">
+      <c r="CC7" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="CD7" s="9" t="s">
+      <c r="CD7" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="CE7" s="9" t="s">
+      <c r="CE7" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="CF7" s="9" t="s">
+      <c r="CF7" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="CG7" s="9" t="s">
+      <c r="CG7" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="CH7" s="12" t="s">
+      <c r="CH7" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2837,11 +2893,11 @@
       <c r="CG8">
         <v>599183</v>
       </c>
-      <c r="CH8" s="13">
+      <c r="CH8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3097,11 +3153,11 @@
       <c r="CG9">
         <v>95694</v>
       </c>
-      <c r="CH9" s="13">
+      <c r="CH9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3357,11 +3413,11 @@
       <c r="CG10">
         <v>360070</v>
       </c>
-      <c r="CH10" s="13">
+      <c r="CH10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3617,11 +3673,11 @@
       <c r="CG11">
         <v>110710</v>
       </c>
-      <c r="CH11" s="13">
+      <c r="CH11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -3877,11 +3933,11 @@
       <c r="CG12">
         <v>89478</v>
       </c>
-      <c r="CH12" s="13">
+      <c r="CH12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -4137,11 +4193,11 @@
       <c r="CG13">
         <v>688205</v>
       </c>
-      <c r="CH13" s="13">
+      <c r="CH13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -4397,11 +4453,11 @@
       <c r="CG14">
         <v>1869487</v>
       </c>
-      <c r="CH14" s="13">
+      <c r="CH14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -4657,11 +4713,11 @@
       <c r="CG15">
         <v>194306</v>
       </c>
-      <c r="CH15" s="13">
+      <c r="CH15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -4917,11 +4973,11 @@
       <c r="CG16">
         <v>239531</v>
       </c>
-      <c r="CH16" s="13">
+      <c r="CH16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -5177,11 +5233,11 @@
       <c r="CG17">
         <v>324886</v>
       </c>
-      <c r="CH17" s="13">
+      <c r="CH17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -5437,11 +5493,11 @@
       <c r="CG18">
         <v>546603</v>
       </c>
-      <c r="CH18" s="13">
+      <c r="CH18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -5697,11 +5753,11 @@
       <c r="CG19">
         <v>735165</v>
       </c>
-      <c r="CH19" s="13">
+      <c r="CH19" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -5957,11 +6013,11 @@
       <c r="CG20">
         <v>914152</v>
       </c>
-      <c r="CH20" s="13">
+      <c r="CH20" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -6217,11 +6273,11 @@
       <c r="CG21">
         <v>378063</v>
       </c>
-      <c r="CH21" s="13">
+      <c r="CH21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -6477,11 +6533,11 @@
       <c r="CG22">
         <v>1168679</v>
       </c>
-      <c r="CH22" s="13">
+      <c r="CH22" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -6737,11 +6793,11 @@
       <c r="CG23">
         <v>297115</v>
       </c>
-      <c r="CH23" s="13">
+      <c r="CH23" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -6997,11 +7053,11 @@
       <c r="CG24">
         <v>238117</v>
       </c>
-      <c r="CH24" s="13">
+      <c r="CH24" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -7257,11 +7313,11 @@
       <c r="CG25">
         <v>536261</v>
       </c>
-      <c r="CH25" s="13">
+      <c r="CH25" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -7517,11 +7573,11 @@
       <c r="CG26">
         <v>1680935</v>
       </c>
-      <c r="CH26" s="13">
+      <c r="CH26" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7777,11 +7833,11 @@
       <c r="CG27">
         <v>192205</v>
       </c>
-      <c r="CH27" s="13">
+      <c r="CH27" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -8037,11 +8093,11 @@
       <c r="CG28">
         <v>382487</v>
       </c>
-      <c r="CH28" s="13">
+      <c r="CH28" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -8297,11 +8353,11 @@
       <c r="CG29">
         <v>270780</v>
       </c>
-      <c r="CH29" s="13">
+      <c r="CH29" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -8557,11 +8613,11 @@
       <c r="CG30">
         <v>87281</v>
       </c>
-      <c r="CH30" s="13">
+      <c r="CH30" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -8817,11 +8873,11 @@
       <c r="CG31">
         <v>689261</v>
       </c>
-      <c r="CH31" s="13">
+      <c r="CH31" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -9077,11 +9133,11 @@
       <c r="CG32">
         <v>1578690</v>
       </c>
-      <c r="CH32" s="13">
+      <c r="CH32" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -9337,11 +9393,11 @@
       <c r="CG33">
         <v>412540</v>
       </c>
-      <c r="CH33" s="13">
+      <c r="CH33" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -9597,11 +9653,11 @@
       <c r="CG34">
         <v>98841</v>
       </c>
-      <c r="CH34" s="13">
+      <c r="CH34" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -9857,11 +9913,11 @@
       <c r="CG35">
         <v>0</v>
       </c>
-      <c r="CH35" s="13">
+      <c r="CH35" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -10117,11 +10173,11 @@
       <c r="CG36">
         <v>0</v>
       </c>
-      <c r="CH36" s="13">
+      <c r="CH36" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -10377,11 +10433,11 @@
       <c r="CG37">
         <v>0</v>
       </c>
-      <c r="CH37" s="13">
+      <c r="CH37" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -10637,11 +10693,11 @@
       <c r="CG38">
         <v>11440</v>
       </c>
-      <c r="CH38" s="13">
+      <c r="CH38" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -10897,11 +10953,11 @@
       <c r="CG39">
         <v>135217</v>
       </c>
-      <c r="CH39" s="13">
+      <c r="CH39" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -11157,11 +11213,11 @@
       <c r="CG40">
         <v>7006</v>
       </c>
-      <c r="CH40" s="13">
+      <c r="CH40" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -11417,11 +11473,11 @@
       <c r="CG41">
         <v>20133</v>
       </c>
-      <c r="CH41" s="13">
+      <c r="CH41" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -11677,11 +11733,11 @@
       <c r="CG42">
         <v>39328</v>
       </c>
-      <c r="CH42" s="13">
+      <c r="CH42" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -11937,11 +11993,11 @@
       <c r="CG43">
         <v>83112</v>
       </c>
-      <c r="CH43" s="13">
+      <c r="CH43" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -12197,11 +12253,11 @@
       <c r="CG44">
         <v>758</v>
       </c>
-      <c r="CH44" s="13">
+      <c r="CH44" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -12457,11 +12513,11 @@
       <c r="CG45">
         <v>282446</v>
       </c>
-      <c r="CH45" s="13">
+      <c r="CH45" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -12717,11 +12773,11 @@
       <c r="CG46">
         <v>159306</v>
       </c>
-      <c r="CH46" s="13">
+      <c r="CH46" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -12977,11 +13033,11 @@
       <c r="CG47">
         <v>486509</v>
       </c>
-      <c r="CH47" s="13">
+      <c r="CH47" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -13237,11 +13293,11 @@
       <c r="CG48">
         <v>147805</v>
       </c>
-      <c r="CH48" s="13">
+      <c r="CH48" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -13497,11 +13553,11 @@
       <c r="CG49">
         <v>745649</v>
       </c>
-      <c r="CH49" s="13">
+      <c r="CH49" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -13757,11 +13813,11 @@
       <c r="CG50">
         <v>343305</v>
       </c>
-      <c r="CH50" s="13">
+      <c r="CH50" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -14017,11 +14073,11 @@
       <c r="CG51">
         <v>951104</v>
       </c>
-      <c r="CH51" s="13">
+      <c r="CH51" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -14277,11 +14333,11 @@
       <c r="CG52">
         <v>692094</v>
       </c>
-      <c r="CH52" s="13">
+      <c r="CH52" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -14537,11 +14593,11 @@
       <c r="CG53">
         <v>1414618</v>
       </c>
-      <c r="CH53" s="13">
+      <c r="CH53" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -14797,11 +14853,11 @@
       <c r="CG54">
         <v>193031</v>
       </c>
-      <c r="CH54" s="13">
+      <c r="CH54" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -15057,11 +15113,11 @@
       <c r="CG55">
         <v>2313760</v>
       </c>
-      <c r="CH55" s="13">
+      <c r="CH55" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -15317,11 +15373,11 @@
       <c r="CG56">
         <v>1402067</v>
       </c>
-      <c r="CH56" s="13">
+      <c r="CH56" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -15577,11 +15633,11 @@
       <c r="CG57">
         <v>483142</v>
       </c>
-      <c r="CH57" s="13">
+      <c r="CH57" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -15837,11 +15893,11 @@
       <c r="CG58">
         <v>376761</v>
       </c>
-      <c r="CH58" s="13">
+      <c r="CH58" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -16097,11 +16153,11 @@
       <c r="CG59">
         <v>613405</v>
       </c>
-      <c r="CH59" s="13">
+      <c r="CH59" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -16357,11 +16413,11 @@
       <c r="CG60">
         <v>2436816</v>
       </c>
-      <c r="CH60" s="13">
+      <c r="CH60" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -16617,11 +16673,11 @@
       <c r="CG61">
         <v>657761</v>
       </c>
-      <c r="CH61" s="13">
+      <c r="CH61" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -16877,11 +16933,11 @@
       <c r="CG62">
         <v>1036945</v>
       </c>
-      <c r="CH62" s="13">
+      <c r="CH62" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -17137,11 +17193,11 @@
       <c r="CG63">
         <v>129166</v>
       </c>
-      <c r="CH63" s="13">
+      <c r="CH63" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -17397,11 +17453,11 @@
       <c r="CG64">
         <v>406150</v>
       </c>
-      <c r="CH64" s="13">
+      <c r="CH64" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -17657,11 +17713,11 @@
       <c r="CG65">
         <v>1131292</v>
       </c>
-      <c r="CH65" s="13">
+      <c r="CH65" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -17917,11 +17973,11 @@
       <c r="CG66">
         <v>1156783</v>
       </c>
-      <c r="CH66" s="13">
+      <c r="CH66" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -18177,11 +18233,11 @@
       <c r="CG67">
         <v>258789</v>
       </c>
-      <c r="CH67" s="13">
+      <c r="CH67" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -18437,11 +18493,11 @@
       <c r="CG68">
         <v>238688</v>
       </c>
-      <c r="CH68" s="13">
+      <c r="CH68" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -18697,11 +18753,11 @@
       <c r="CG69">
         <v>126675</v>
       </c>
-      <c r="CH69" s="13">
+      <c r="CH69" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -18957,11 +19013,11 @@
       <c r="CG70">
         <v>156006</v>
       </c>
-      <c r="CH70" s="13">
+      <c r="CH70" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -19217,11 +19273,11 @@
       <c r="CG71">
         <v>145130</v>
       </c>
-      <c r="CH71" s="13">
+      <c r="CH71" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -19477,11 +19533,11 @@
       <c r="CG72">
         <v>869400</v>
       </c>
-      <c r="CH72" s="13">
+      <c r="CH72" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -19737,11 +19793,11 @@
       <c r="CG73">
         <v>880271</v>
       </c>
-      <c r="CH73" s="13">
+      <c r="CH73" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -19997,11 +20053,11 @@
       <c r="CG74">
         <v>700477</v>
       </c>
-      <c r="CH74" s="13">
+      <c r="CH74" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -20257,11 +20313,11 @@
       <c r="CG75">
         <v>460969</v>
       </c>
-      <c r="CH75" s="13">
+      <c r="CH75" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -20517,11 +20573,11 @@
       <c r="CG76">
         <v>71213</v>
       </c>
-      <c r="CH76" s="13">
+      <c r="CH76" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -20777,11 +20833,11 @@
       <c r="CG77">
         <v>1916544</v>
       </c>
-      <c r="CH77" s="13">
+      <c r="CH77" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -21037,11 +21093,11 @@
       <c r="CG78">
         <v>111092</v>
       </c>
-      <c r="CH78" s="13">
+      <c r="CH78" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -21297,11 +21353,11 @@
       <c r="CG79">
         <v>182129</v>
       </c>
-      <c r="CH79" s="13">
+      <c r="CH79" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -21557,15 +21613,15 @@
       <c r="CG80">
         <v>202563</v>
       </c>
-      <c r="CH80" s="13">
+      <c r="CH80" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>226</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="6" t="s">
         <v>227</v>
       </c>
       <c r="C81">
@@ -21839,130 +21895,130 @@
       <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.26953125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>240</v>
       </c>
       <c r="C8">
@@ -21993,7 +22049,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -22028,7 +22084,7 @@
         <v>2368.1999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -22063,7 +22119,7 @@
         <v>671.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -22098,7 +22154,7 @@
         <v>629.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -22133,7 +22189,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -22168,23 +22224,23 @@
         <v>1541.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="10">
         <v>457</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="10">
         <v>419.3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="10">
         <v>457.2</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="10">
         <v>462</v>
       </c>
       <c r="G14">
@@ -22203,7 +22259,7 @@
         <v>533.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>253</v>
       </c>
@@ -22238,7 +22294,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -22273,7 +22329,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -22308,7 +22364,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -22343,7 +22399,7 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -22378,7 +22434,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -22413,7 +22469,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>264</v>
       </c>
@@ -22448,7 +22504,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -22483,7 +22539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -22518,7 +22574,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -22553,7 +22609,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -22588,7 +22644,7 @@
         <v>916.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -22623,7 +22679,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -22658,7 +22714,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -22693,7 +22749,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -22728,11 +22784,11 @@
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C30">
@@ -22763,7 +22819,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>282</v>
       </c>
@@ -22798,7 +22854,7 @@
         <v>2180.3000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -22833,7 +22889,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -22868,7 +22924,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -22903,7 +22959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -22938,7 +22994,7 @@
         <v>284.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>292</v>
       </c>
@@ -22973,7 +23029,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -23008,7 +23064,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -23043,11 +23099,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>297</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>298</v>
       </c>
       <c r="C39">
@@ -23078,7 +23134,7 @@
         <v>143.6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>299</v>
       </c>
@@ -23113,7 +23169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>301</v>
       </c>
@@ -23148,7 +23204,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -23183,11 +23239,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>303</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>304</v>
       </c>
       <c r="C43">
@@ -23218,7 +23274,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -23253,7 +23309,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -23288,11 +23344,11 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>308</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>309</v>
       </c>
       <c r="C46">
@@ -23323,7 +23379,7 @@
         <v>3532.3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>310</v>
       </c>
@@ -23358,7 +23414,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>311</v>
       </c>
@@ -23393,7 +23449,7 @@
         <v>450.3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>313</v>
       </c>
@@ -23428,7 +23484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -23463,7 +23519,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -23498,11 +23554,11 @@
         <v>350.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>318</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>319</v>
       </c>
       <c r="C52">
@@ -23533,35 +23589,35 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -23588,13 +23644,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -23603,7 +23659,7 @@
         <v>1795500000000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -23612,11 +23668,11 @@
         <v>34904443000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <f>B1/B2</f>
         <v>5.1440442696650393E-2</v>
       </c>
@@ -23627,23 +23683,164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F061CF8-6BCF-4AB3-BA34-702C5FDBDE2A}">
+  <dimension ref="B2:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="20">
+        <f>AVERAGE(C6:C18)</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="B2:AQ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -23774,175 +23971,177 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="C2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="D2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="E2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="F2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="G2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="H2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="I2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="J2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="K2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="L2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="M2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="N2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="O2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="P2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="Q2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="R2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="S2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="T2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="U2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="V2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="W2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="X2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="Y2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="Z2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AA2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AB2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AC2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AD2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AE2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AF2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AG2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AH2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AI2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AJ2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AK2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AL2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AM2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AP2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AQ2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
+      <c r="B2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="C2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="H2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="J2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="L2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="M2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="N2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="O2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="P2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="Q2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="R2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="S2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="T2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="U2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="V2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="W2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="X2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="Y2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="Z2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AA2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AB2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AC2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AD2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AE2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AF2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AG2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AH2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AI2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AJ2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AK2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AL2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AM2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AN2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AO2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AP2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
+      </c>
+      <c r="AQ2" s="13">
+        <f>canada!$C$20</f>
+        <v>8.6923076923076936E-2</v>
       </c>
     </row>
   </sheetData>
